--- a/backend/config/playernumber.xlsx
+++ b/backend/config/playernumber.xlsx
@@ -11,7 +11,7 @@
     <sheet name="渠道" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">B服!$A$1:$F$193</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">B服!$A$1:$F$195</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="23">
   <si>
     <t>活动编号</t>
   </si>
@@ -1078,14 +1078,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G194"/>
+  <dimension ref="A1:G196"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B174" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D195" sqref="D195"/>
+      <selection pane="bottomRight" activeCell="D197" sqref="D197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -5055,8 +5055,8 @@
       <c r="D194" s="8">
         <v>234429</v>
       </c>
-      <c r="E194" s="2" t="s">
-        <v>10</v>
+      <c r="E194" s="2">
+        <v>11</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>9</v>
@@ -5065,9 +5065,55 @@
         <v>15</v>
       </c>
     </row>
+    <row r="195" spans="1:7">
+      <c r="A195" s="2">
+        <v>268</v>
+      </c>
+      <c r="B195" s="7">
+        <v>45722</v>
+      </c>
+      <c r="C195" s="7">
+        <v>45730</v>
+      </c>
+      <c r="D195" s="8">
+        <v>237677</v>
+      </c>
+      <c r="E195" s="2">
+        <v>17</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G195" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" s="2">
+        <v>269</v>
+      </c>
+      <c r="B196" s="7">
+        <v>45733</v>
+      </c>
+      <c r="C196" s="7">
+        <v>45740</v>
+      </c>
+      <c r="D196" s="8">
+        <v>220299</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G196" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F193" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F195" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <sortState ref="A2:G193">
@@ -5087,7 +5133,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F155"/>
+  <dimension ref="A1:F157"/>
   <sheetViews>
     <sheetView zoomScale="143" zoomScaleNormal="143" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B136" activePane="bottomRight" state="frozen"/>
@@ -8352,13 +8398,55 @@
         <v>9</v>
       </c>
     </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="2">
+        <v>268</v>
+      </c>
+      <c r="B156" s="7">
+        <v>45722</v>
+      </c>
+      <c r="C156" s="7">
+        <v>45730</v>
+      </c>
+      <c r="D156" s="3">
+        <v>27921</v>
+      </c>
+      <c r="E156" s="5">
+        <f>D156/B服!D195</f>
+        <v>0.117474555804727</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" s="2">
+        <v>269</v>
+      </c>
+      <c r="B157" s="7">
+        <v>45733</v>
+      </c>
+      <c r="C157" s="7">
+        <v>45740</v>
+      </c>
+      <c r="D157" s="3">
+        <v>27059</v>
+      </c>
+      <c r="E157" s="5">
+        <f>D157/B服!D196</f>
+        <v>0.122828519421332</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:F134">
     <sortCondition ref="B2:B134"/>
     <sortCondition ref="A2:A134"/>
   </sortState>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F155">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F155 F156:F157">
       <formula1>"一般活动（协力）,挑战LIVE（CP）,竞演LIVE（对邦）,LIVE试炼（EX）,任务LIVE（协力）,团队LIVE FES （5V5）,组曲LIVE（3组曲）"</formula1>
     </dataValidation>
   </dataValidations>

--- a/backend/config/playernumber.xlsx
+++ b/backend/config/playernumber.xlsx
@@ -11,7 +11,7 @@
     <sheet name="渠道" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">B服!$A$1:$F$195</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">B服!$A$1:$F$198</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="23">
   <si>
     <t>活动编号</t>
   </si>
@@ -1078,14 +1078,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G196"/>
+  <dimension ref="A1:G199"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B174" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B178" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D197" sqref="D197"/>
+      <selection pane="bottomRight" activeCell="D200" sqref="D200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -5101,8 +5101,8 @@
       <c r="D196" s="8">
         <v>220299</v>
       </c>
-      <c r="E196" s="2" t="s">
-        <v>10</v>
+      <c r="E196" s="2">
+        <v>29</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>8</v>
@@ -5111,9 +5111,75 @@
         <v>15</v>
       </c>
     </row>
+    <row r="197" spans="1:7">
+      <c r="A197" s="2">
+        <v>270</v>
+      </c>
+      <c r="B197" s="7">
+        <v>45742</v>
+      </c>
+      <c r="C197" s="7">
+        <v>45750</v>
+      </c>
+      <c r="D197" s="8">
+        <v>259388</v>
+      </c>
+      <c r="E197" s="2">
+        <v>22</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G197" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" s="2">
+        <v>271</v>
+      </c>
+      <c r="B198" s="7">
+        <v>45752</v>
+      </c>
+      <c r="C198" s="7">
+        <v>45759</v>
+      </c>
+      <c r="D198" s="8">
+        <v>233157</v>
+      </c>
+      <c r="E198" s="2">
+        <v>20</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G198" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" s="2">
+        <v>272</v>
+      </c>
+      <c r="B199" s="7">
+        <v>45761</v>
+      </c>
+      <c r="C199" s="7">
+        <v>45769</v>
+      </c>
+      <c r="D199" s="8">
+        <v>104096</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F195" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F198" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <sortState ref="A2:G193">
@@ -5133,14 +5199,14 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F157"/>
+  <dimension ref="A1:F198"/>
   <sheetViews>
     <sheetView zoomScale="143" zoomScaleNormal="143" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B136" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B142" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D158" sqref="D158"/>
+      <selection pane="bottomRight" activeCell="D161" sqref="D161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -8440,13 +8506,190 @@
         <v>8</v>
       </c>
     </row>
+    <row r="158" spans="1:6">
+      <c r="A158" s="2">
+        <v>270</v>
+      </c>
+      <c r="B158" s="7">
+        <v>45742</v>
+      </c>
+      <c r="C158" s="7">
+        <v>45750</v>
+      </c>
+      <c r="D158" s="3">
+        <v>33759</v>
+      </c>
+      <c r="E158" s="5">
+        <f>D158/B服!D197</f>
+        <v>0.13014865760945</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" s="2">
+        <v>271</v>
+      </c>
+      <c r="B159" s="7">
+        <v>45752</v>
+      </c>
+      <c r="C159" s="7">
+        <v>45759</v>
+      </c>
+      <c r="D159" s="3">
+        <v>32370</v>
+      </c>
+      <c r="E159" s="5">
+        <f>D159/B服!D198</f>
+        <v>0.138833489880209</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" s="2">
+        <v>272</v>
+      </c>
+      <c r="B160" s="7">
+        <v>45760</v>
+      </c>
+      <c r="C160" s="7">
+        <v>45769</v>
+      </c>
+      <c r="D160" s="3">
+        <v>9727</v>
+      </c>
+      <c r="E160" s="5">
+        <f>D160/B服!D199</f>
+        <v>0.0934425914540424</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="161" spans="6:6">
+      <c r="F161" s="2"/>
+    </row>
+    <row r="162" spans="6:6">
+      <c r="F162" s="2"/>
+    </row>
+    <row r="163" spans="6:6">
+      <c r="F163" s="2"/>
+    </row>
+    <row r="164" spans="6:6">
+      <c r="F164" s="2"/>
+    </row>
+    <row r="165" spans="6:6">
+      <c r="F165" s="2"/>
+    </row>
+    <row r="166" spans="6:6">
+      <c r="F166" s="2"/>
+    </row>
+    <row r="167" spans="6:6">
+      <c r="F167" s="2"/>
+    </row>
+    <row r="168" spans="6:6">
+      <c r="F168" s="2"/>
+    </row>
+    <row r="169" spans="6:6">
+      <c r="F169" s="2"/>
+    </row>
+    <row r="170" spans="6:6">
+      <c r="F170" s="2"/>
+    </row>
+    <row r="171" spans="6:6">
+      <c r="F171" s="2"/>
+    </row>
+    <row r="172" spans="6:6">
+      <c r="F172" s="2"/>
+    </row>
+    <row r="173" spans="6:6">
+      <c r="F173" s="2"/>
+    </row>
+    <row r="174" spans="6:6">
+      <c r="F174" s="2"/>
+    </row>
+    <row r="175" spans="6:6">
+      <c r="F175" s="2"/>
+    </row>
+    <row r="176" spans="6:6">
+      <c r="F176" s="2"/>
+    </row>
+    <row r="177" spans="6:6">
+      <c r="F177" s="2"/>
+    </row>
+    <row r="178" spans="6:6">
+      <c r="F178" s="2"/>
+    </row>
+    <row r="179" spans="6:6">
+      <c r="F179" s="2"/>
+    </row>
+    <row r="180" spans="6:6">
+      <c r="F180" s="2"/>
+    </row>
+    <row r="181" spans="6:6">
+      <c r="F181" s="2"/>
+    </row>
+    <row r="182" spans="6:6">
+      <c r="F182" s="2"/>
+    </row>
+    <row r="183" spans="6:6">
+      <c r="F183" s="2"/>
+    </row>
+    <row r="184" spans="6:6">
+      <c r="F184" s="2"/>
+    </row>
+    <row r="185" spans="6:6">
+      <c r="F185" s="2"/>
+    </row>
+    <row r="186" spans="6:6">
+      <c r="F186" s="2"/>
+    </row>
+    <row r="187" spans="6:6">
+      <c r="F187" s="2"/>
+    </row>
+    <row r="188" spans="6:6">
+      <c r="F188" s="2"/>
+    </row>
+    <row r="189" spans="6:6">
+      <c r="F189" s="2"/>
+    </row>
+    <row r="190" spans="6:6">
+      <c r="F190" s="2"/>
+    </row>
+    <row r="191" spans="6:6">
+      <c r="F191" s="2"/>
+    </row>
+    <row r="192" spans="6:6">
+      <c r="F192" s="2"/>
+    </row>
+    <row r="193" spans="6:6">
+      <c r="F193" s="2"/>
+    </row>
+    <row r="194" spans="6:6">
+      <c r="F194" s="2"/>
+    </row>
+    <row r="195" spans="6:6">
+      <c r="F195" s="2"/>
+    </row>
+    <row r="196" spans="6:6">
+      <c r="F196" s="2"/>
+    </row>
+    <row r="197" spans="6:6">
+      <c r="F197" s="2"/>
+    </row>
+    <row r="198" spans="6:6">
+      <c r="F198" s="2"/>
+    </row>
   </sheetData>
   <sortState ref="A2:F134">
     <sortCondition ref="B2:B134"/>
     <sortCondition ref="A2:A134"/>
   </sortState>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F155 F156:F157">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F158 F159:F198">
       <formula1>"一般活动（协力）,挑战LIVE（CP）,竞演LIVE（对邦）,LIVE试炼（EX）,任务LIVE（协力）,团队LIVE FES （5V5）,组曲LIVE（3组曲）"</formula1>
     </dataValidation>
   </dataValidations>

--- a/backend/config/playernumber.xlsx
+++ b/backend/config/playernumber.xlsx
@@ -11,7 +11,7 @@
     <sheet name="渠道" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">B服!$A$1:$F$198</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">B服!$A$1:$F$199</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="25">
   <si>
     <t>活动编号</t>
   </si>
@@ -100,6 +100,12 @@
   </si>
   <si>
     <t>13.98%+</t>
+  </si>
+  <si>
+    <t>44208+</t>
+  </si>
+  <si>
+    <t>18.82%+</t>
   </si>
 </sst>
 </file>
@@ -1078,14 +1084,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G199"/>
+  <dimension ref="A1:G200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B178" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D200" sqref="D200"/>
+      <selection pane="bottomRight" activeCell="D201" sqref="D201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -5157,7 +5163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:7">
       <c r="A199" s="2">
         <v>272</v>
       </c>
@@ -5170,16 +5176,42 @@
       <c r="D199" s="8">
         <v>104096</v>
       </c>
-      <c r="E199" s="2" t="s">
-        <v>10</v>
+      <c r="E199" s="2">
+        <v>4</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="G199" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" s="2">
+        <v>273</v>
+      </c>
+      <c r="B200" s="7">
+        <v>45771</v>
+      </c>
+      <c r="C200" s="7">
+        <v>45781</v>
+      </c>
+      <c r="D200" s="8">
+        <v>234929</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G200" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F198" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F199" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <sortState ref="A2:G193">
@@ -5206,7 +5238,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D161" sqref="D161"/>
+      <selection pane="bottomRight" activeCell="E163" sqref="E163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -8569,8 +8601,25 @@
         <v>12</v>
       </c>
     </row>
-    <row r="161" spans="6:6">
-      <c r="F161" s="2"/>
+    <row r="161" spans="1:6">
+      <c r="A161" s="2">
+        <v>273</v>
+      </c>
+      <c r="B161" s="7">
+        <v>45771</v>
+      </c>
+      <c r="C161" s="7">
+        <v>45781</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E161" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="162" spans="6:6">
       <c r="F162" s="2"/>
@@ -8689,7 +8738,7 @@
     <sortCondition ref="A2:A134"/>
   </sortState>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F158 F159:F198">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F198">
       <formula1>"一般活动（协力）,挑战LIVE（CP）,竞演LIVE（对邦）,LIVE试炼（EX）,任务LIVE（协力）,团队LIVE FES （5V5）,组曲LIVE（3组曲）"</formula1>
     </dataValidation>
   </dataValidations>

--- a/backend/config/playernumber.xlsx
+++ b/backend/config/playernumber.xlsx
@@ -11,7 +11,7 @@
     <sheet name="渠道" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">B服!$A$1:$F$199</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">B服!$A$1:$F$200</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="25">
   <si>
     <t>活动编号</t>
   </si>
@@ -1084,14 +1084,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G200"/>
+  <dimension ref="A1:G201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B178" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D201" sqref="D201"/>
+      <selection pane="bottomRight" activeCell="D202" sqref="D202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -5199,8 +5199,8 @@
       <c r="D200" s="8">
         <v>234929</v>
       </c>
-      <c r="E200" s="2" t="s">
-        <v>10</v>
+      <c r="E200" s="2">
+        <v>6</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>9</v>
@@ -5209,9 +5209,32 @@
         <v>15</v>
       </c>
     </row>
+    <row r="201" spans="1:7">
+      <c r="A201" s="2">
+        <v>274</v>
+      </c>
+      <c r="B201" s="7">
+        <v>45783</v>
+      </c>
+      <c r="C201" s="7">
+        <v>45791</v>
+      </c>
+      <c r="D201" s="8">
+        <v>184844</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G201" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F199" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F200" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <sortState ref="A2:G193">
@@ -5238,7 +5261,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E163" sqref="E163"/>
+      <selection pane="bottomRight" activeCell="D163" sqref="D163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -8621,8 +8644,26 @@
         <v>9</v>
       </c>
     </row>
-    <row r="162" spans="6:6">
-      <c r="F162" s="2"/>
+    <row r="162" spans="1:6">
+      <c r="A162" s="2">
+        <v>274</v>
+      </c>
+      <c r="B162" s="7">
+        <v>45783</v>
+      </c>
+      <c r="C162" s="7">
+        <v>45791</v>
+      </c>
+      <c r="D162" s="3">
+        <v>27424</v>
+      </c>
+      <c r="E162" s="5">
+        <f>D162/B服!D201</f>
+        <v>0.148362943887819</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="163" spans="6:6">
       <c r="F163" s="2"/>

--- a/backend/config/playernumber.xlsx
+++ b/backend/config/playernumber.xlsx
@@ -11,7 +11,7 @@
     <sheet name="渠道" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">B服!$A$1:$F$200</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">B服!$A$1:$F$201</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="25">
   <si>
     <t>活动编号</t>
   </si>
@@ -1084,14 +1084,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G201"/>
+  <dimension ref="A1:G202"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B178" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D202" sqref="D202"/>
+      <selection pane="bottomRight" activeCell="D203" sqref="D203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -5222,8 +5222,8 @@
       <c r="D201" s="8">
         <v>184844</v>
       </c>
-      <c r="E201" s="2" t="s">
-        <v>10</v>
+      <c r="E201" s="2">
+        <v>4</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>7</v>
@@ -5232,9 +5232,32 @@
         <v>15</v>
       </c>
     </row>
+    <row r="202" spans="1:7">
+      <c r="A202" s="2">
+        <v>275</v>
+      </c>
+      <c r="B202" s="7">
+        <v>45793</v>
+      </c>
+      <c r="C202" s="7">
+        <v>45801</v>
+      </c>
+      <c r="D202" s="8">
+        <v>188041</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G202" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F200" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F201" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <sortState ref="A2:G193">
@@ -5261,7 +5284,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D163" sqref="D163"/>
+      <selection pane="bottomRight" activeCell="D166" sqref="D166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -8665,8 +8688,26 @@
         <v>7</v>
       </c>
     </row>
-    <row r="163" spans="6:6">
-      <c r="F163" s="2"/>
+    <row r="163" spans="1:6">
+      <c r="A163" s="2">
+        <v>275</v>
+      </c>
+      <c r="B163" s="7">
+        <v>45793</v>
+      </c>
+      <c r="C163" s="7">
+        <v>45801</v>
+      </c>
+      <c r="D163" s="3">
+        <v>31568</v>
+      </c>
+      <c r="E163" s="5">
+        <f>D163/B服!D202</f>
+        <v>0.167878281864062</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="164" spans="6:6">
       <c r="F164" s="2"/>
